--- a/ratings-2023.xlsx
+++ b/ratings-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591976F5-6EAC-8949-BAAC-9AC92C060056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94B8164-291A-E149-B6B6-7DF900A5E003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3700" yWindow="13700" windowWidth="37240" windowHeight="10280" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
@@ -790,9 +790,9 @@
   <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" activePane="bottomLeft"/>
+      <pane ySplit="760" topLeftCell="A21" activePane="bottomLeft"/>
       <selection sqref="A1:AA1"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,6 +900,9 @@
       <c r="E2" t="s">
         <v>97</v>
       </c>
+      <c r="F2">
+        <v>3560000</v>
+      </c>
       <c r="G2">
         <v>2023</v>
       </c>
@@ -982,6 +985,9 @@
       <c r="E3" t="s">
         <v>117</v>
       </c>
+      <c r="F3">
+        <v>582000</v>
+      </c>
       <c r="G3">
         <v>2023</v>
       </c>
@@ -1064,6 +1070,9 @@
       <c r="E4" t="s">
         <v>101</v>
       </c>
+      <c r="F4">
+        <v>466000</v>
+      </c>
       <c r="G4">
         <v>2023</v>
       </c>
@@ -1146,6 +1155,9 @@
       <c r="E5" t="s">
         <v>93</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5">
         <v>2023</v>
       </c>
@@ -1228,6 +1240,9 @@
       <c r="E6" t="s">
         <v>43</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="G6">
         <v>2023</v>
       </c>
@@ -1310,6 +1325,9 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
       <c r="G7">
         <v>2023</v>
       </c>
@@ -1392,6 +1410,9 @@
       <c r="E8" t="s">
         <v>48</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="G8">
         <v>2023</v>
       </c>
@@ -1474,6 +1495,9 @@
       <c r="E9" t="s">
         <v>68</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
       <c r="G9">
         <v>2023</v>
       </c>
@@ -1556,6 +1580,9 @@
       <c r="E10" t="s">
         <v>111</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="G10">
         <v>2023</v>
       </c>
@@ -1638,6 +1665,9 @@
       <c r="E11" t="s">
         <v>79</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="G11">
         <v>2023</v>
       </c>
@@ -1720,6 +1750,9 @@
       <c r="E12" t="s">
         <v>86</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="G12">
         <v>2023</v>
       </c>
@@ -1802,6 +1835,9 @@
       <c r="E13" t="s">
         <v>46</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
       <c r="G13">
         <v>2023</v>
       </c>
@@ -1884,6 +1920,9 @@
       <c r="E14" t="s">
         <v>94</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14">
         <v>2023</v>
       </c>
@@ -1966,6 +2005,9 @@
       <c r="E15" t="s">
         <v>25</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="G15">
         <v>2023</v>
       </c>
@@ -2048,6 +2090,9 @@
       <c r="E16" t="s">
         <v>26</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="G16">
         <v>2023</v>
       </c>
@@ -2130,6 +2175,9 @@
       <c r="E17" t="s">
         <v>102</v>
       </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
       <c r="G17">
         <v>2023</v>
       </c>
@@ -2212,6 +2260,9 @@
       <c r="E18" t="s">
         <v>120</v>
       </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="G18">
         <v>2023</v>
       </c>
@@ -2294,6 +2345,9 @@
       <c r="E19" t="s">
         <v>88</v>
       </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="G19">
         <v>2023</v>
       </c>
@@ -2376,6 +2430,9 @@
       <c r="E20" t="s">
         <v>117</v>
       </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
       <c r="G20">
         <v>2023</v>
       </c>
@@ -2458,6 +2515,9 @@
       <c r="E21" t="s">
         <v>89</v>
       </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
       <c r="G21">
         <v>2023</v>
       </c>
@@ -2540,6 +2600,9 @@
       <c r="E22" t="s">
         <v>98</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
       <c r="G22">
         <v>2023</v>
       </c>
@@ -2622,6 +2685,9 @@
       <c r="E23" t="s">
         <v>40</v>
       </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
       <c r="G23">
         <v>2023</v>
       </c>
@@ -2704,6 +2770,9 @@
       <c r="E24" t="s">
         <v>36</v>
       </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
       <c r="G24">
         <v>2023</v>
       </c>
@@ -2786,6 +2855,9 @@
       <c r="E25" t="s">
         <v>99</v>
       </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
       <c r="G25">
         <v>2023</v>
       </c>
@@ -2868,6 +2940,9 @@
       <c r="E26" t="s">
         <v>73</v>
       </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
       <c r="G26">
         <v>2023</v>
       </c>
@@ -2950,6 +3025,9 @@
       <c r="E27" t="s">
         <v>107</v>
       </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
       <c r="G27">
         <v>2023</v>
       </c>
@@ -3032,6 +3110,9 @@
       <c r="E28" t="s">
         <v>121</v>
       </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
       <c r="G28">
         <v>2023</v>
       </c>
@@ -3114,6 +3195,9 @@
       <c r="E29" t="s">
         <v>90</v>
       </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
       <c r="G29">
         <v>2023</v>
       </c>
@@ -3196,6 +3280,9 @@
       <c r="E30" t="s">
         <v>28</v>
       </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
       <c r="G30">
         <v>2023</v>
       </c>
@@ -3278,6 +3365,9 @@
       <c r="E31" t="s">
         <v>39</v>
       </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
       <c r="G31">
         <v>2023</v>
       </c>
@@ -3360,6 +3450,9 @@
       <c r="E32" t="s">
         <v>81</v>
       </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
       <c r="G32">
         <v>2023</v>
       </c>
@@ -3441,6 +3534,9 @@
       </c>
       <c r="E33" t="s">
         <v>66</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33">
         <v>2023</v>

--- a/ratings-2023.xlsx
+++ b/ratings-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/PycharmProjects/tvratings-ssac2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF506C52-FABE-484A-BB94-389B6EE8DEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B5E311-32DF-B540-A245-580494CD90B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8420" yWindow="9380" windowWidth="36580" windowHeight="15300" xr2:uid="{BBDA95F9-3552-704A-ADE2-3350C5179C3F}"/>
   </bookViews>
@@ -1030,9 +1030,9 @@
   <dimension ref="A1:AA186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A64" activePane="bottomLeft"/>
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-      <selection pane="bottomLeft" activeCell="N151" sqref="N151"/>
+      <pane ySplit="760" topLeftCell="A161" activePane="bottomLeft"/>
+      <selection activeCell="G1" sqref="G1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="H186" sqref="H164:H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,7 +1041,7 @@
     <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
     <col min="19" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15303,6 +15303,9 @@
       <c r="G165">
         <v>2023</v>
       </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
       <c r="I165">
         <v>7</v>
       </c>
@@ -15380,6 +15383,9 @@
       <c r="G166">
         <v>2023</v>
       </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
       <c r="I166">
         <v>7</v>
       </c>
@@ -15457,6 +15463,9 @@
       <c r="G167">
         <v>2023</v>
       </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
       <c r="I167">
         <v>7</v>
       </c>
@@ -15534,6 +15543,9 @@
       <c r="G168">
         <v>2023</v>
       </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
       <c r="I168">
         <v>7</v>
       </c>
@@ -15611,6 +15623,9 @@
       <c r="G169">
         <v>2023</v>
       </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
       <c r="I169">
         <v>7</v>
       </c>
@@ -15688,6 +15703,9 @@
       <c r="G170">
         <v>2023</v>
       </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
       <c r="I170">
         <v>7</v>
       </c>
@@ -15765,6 +15783,9 @@
       <c r="G171">
         <v>2023</v>
       </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
       <c r="I171">
         <v>7</v>
       </c>
@@ -15842,6 +15863,9 @@
       <c r="G172">
         <v>2023</v>
       </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
       <c r="I172">
         <v>7</v>
       </c>
@@ -15919,6 +15943,9 @@
       <c r="G173">
         <v>2023</v>
       </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
       <c r="I173">
         <v>7</v>
       </c>
@@ -15996,6 +16023,9 @@
       <c r="G174">
         <v>2023</v>
       </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
       <c r="I174">
         <v>7</v>
       </c>
@@ -16073,6 +16103,9 @@
       <c r="G175">
         <v>2023</v>
       </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
       <c r="I175">
         <v>7</v>
       </c>
@@ -16150,6 +16183,9 @@
       <c r="G176">
         <v>2023</v>
       </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
       <c r="I176">
         <v>7</v>
       </c>
@@ -16227,6 +16263,9 @@
       <c r="G177">
         <v>2023</v>
       </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
       <c r="I177">
         <v>7</v>
       </c>
@@ -16304,6 +16343,9 @@
       <c r="G178">
         <v>2023</v>
       </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
       <c r="I178">
         <v>7</v>
       </c>
@@ -16381,6 +16423,9 @@
       <c r="G179">
         <v>2023</v>
       </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
       <c r="I179">
         <v>7</v>
       </c>
@@ -16458,6 +16503,9 @@
       <c r="G180">
         <v>2023</v>
       </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
       <c r="I180">
         <v>7</v>
       </c>
@@ -16535,6 +16583,9 @@
       <c r="G181">
         <v>2023</v>
       </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
       <c r="I181">
         <v>7</v>
       </c>
@@ -16612,6 +16663,9 @@
       <c r="G182">
         <v>2023</v>
       </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
       <c r="I182">
         <v>7</v>
       </c>
@@ -16689,6 +16743,9 @@
       <c r="G183">
         <v>2023</v>
       </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
       <c r="I183">
         <v>7</v>
       </c>
@@ -16766,6 +16823,9 @@
       <c r="G184">
         <v>2023</v>
       </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
       <c r="I184">
         <v>7</v>
       </c>
@@ -16843,6 +16903,9 @@
       <c r="G185">
         <v>2023</v>
       </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
       <c r="I185">
         <v>7</v>
       </c>
@@ -16919,6 +16982,9 @@
       </c>
       <c r="G186">
         <v>2023</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
       </c>
       <c r="I186">
         <v>7</v>
